--- a/biology/Neurosciences/Journal_of_Comparative_Neurology/Journal_of_Comparative_Neurology.xlsx
+++ b/biology/Neurosciences/Journal_of_Comparative_Neurology/Journal_of_Comparative_Neurology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Journal of Comparative Neurology (abrégé en J. Comp. Neurol.) est une revue scientifique spécialisée dans le domaine des neurosciences[1]. 
-D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 3,718 en 2009. L'actuel directeur de publication est Clifford B. Saper (Harvard Medical School, États-Unis)[2].
+Journal of Comparative Neurology (abrégé en J. Comp. Neurol.) est une revue scientifique spécialisée dans le domaine des neurosciences. 
+D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 3,718 en 2009. L'actuel directeur de publication est Clifford B. Saper (Harvard Medical School, États-Unis).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Au cours de son histoire, le journal a plusieurs fois changé de nom :
 Journal of Comparative Neurology, 1891–1903  (ISSN 0092-7317)
